--- a/me-docs/26.Hien-thi-bai-viet-trong-category.xlsx
+++ b/me-docs/26.Hien-thi-bai-viet-trong-category.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB92F333-831C-45E4-ABF7-5FE833C8A4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2F5C41-9CCA-48EB-873D-2DC7150B9506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
+    <sheet name="link category" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>routes\web.php</t>
   </si>
@@ -40,6 +41,9 @@
   </si>
   <si>
     <t>Copy from home</t>
+  </si>
+  <si>
+    <t>resources\views\news\elements\header.blade.php</t>
   </si>
 </sst>
 </file>
@@ -319,6 +323,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>436800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CCF2967-9EEE-4F0B-9CEE-4581814AD78C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="10800000" cy="4771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>294171</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD9DA92F-5B51-4AAF-9423-B04C7FC21946}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5334000"/>
+          <a:ext cx="8828571" cy="2419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38551</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B8E57D-18A1-4A08-BEBC-97790CE41475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8191500"/>
+          <a:ext cx="11468100" cy="4229551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -584,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
@@ -619,4 +760,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876C4E94-C520-4913-92F0-3A93F7345CC6}">
+  <dimension ref="A2:A43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/26.Hien-thi-bai-viet-trong-category.xlsx
+++ b/me-docs/26.Hien-thi-bai-viet-trong-category.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2F5C41-9CCA-48EB-873D-2DC7150B9506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D97BCB2-EC17-490B-8295-D887DFE45376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
     <sheet name="link category" sheetId="2" r:id="rId2"/>
+    <sheet name="show articles" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>routes\web.php</t>
   </si>
@@ -44,6 +45,21 @@
   </si>
   <si>
     <t>resources\views\news\elements\header.blade.php</t>
+  </si>
+  <si>
+    <t>app\Models\CategoryModel.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\pages\category\child-index\category.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\pages\category\child-index\category_list.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\pages\category\child-index\category_grid.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\pages\home\child-index\category_grid.blade.php</t>
   </si>
 </sst>
 </file>
@@ -449,6 +465,407 @@
         <a:xfrm>
           <a:off x="609600" y="8191500"/>
           <a:ext cx="11468100" cy="4229551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>589257</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>170762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9669E106-69E8-43E7-B8D9-6FDB29A9E62D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="10342857" cy="5504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>65371</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>180286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3057131A-E1E0-42DF-BC38-9C829C8C9A91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6096000"/>
+          <a:ext cx="10428571" cy="5514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10BF09E-AA75-42EC-A374-4D140F126E1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12001500"/>
+          <a:ext cx="10858500" cy="3048463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>179581</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>161667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92DE1564-4F4C-48FE-B858-E9EECACCD844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15430500"/>
+          <a:ext cx="11152381" cy="2066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>265676</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>123643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{757309FE-0D4F-495F-9F48-246DED551E2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17907000"/>
+          <a:ext cx="8190476" cy="1457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>522667</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>180500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB7458E-22D4-4E65-A618-11045B490910}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="19812000"/>
+          <a:ext cx="9666667" cy="3800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>89504</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D077B908-EF08-4C7A-93CE-7FB924096738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="24003000"/>
+          <a:ext cx="10934700" cy="3518504"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>456228</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>95071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B43FA8D-E6F9-41AC-B660-DAC4E9695DBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="28003500"/>
+          <a:ext cx="7771428" cy="1428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>87706</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338F986F-89DD-41E9-8A8A-5BDF289A97FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="29908500"/>
+          <a:ext cx="11182350" cy="6183706"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -766,7 +1183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876C4E94-C520-4913-92F0-3A93F7345CC6}">
   <dimension ref="A2:A43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
@@ -786,4 +1203,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61A0D63-6BB6-49E1-9569-6A621F75387F}">
+  <dimension ref="A2:A157"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B191" sqref="B191"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/26.Hien-thi-bai-viet-trong-category.xlsx
+++ b/me-docs/26.Hien-thi-bai-viet-trong-category.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D97BCB2-EC17-490B-8295-D887DFE45376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF13858-6F86-4BF2-8B68-6EB53F35EB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
     <sheet name="link category" sheetId="2" r:id="rId2"/>
     <sheet name="show articles" sheetId="3" r:id="rId3"/>
+    <sheet name="breadcrumb" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>routes\web.php</t>
   </si>
@@ -60,6 +61,12 @@
   </si>
   <si>
     <t>resources\views\news\pages\home\child-index\category_grid.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\block\breadcrumb.blade.php</t>
+  </si>
+  <si>
+    <t>namespace</t>
   </si>
 </sst>
 </file>
@@ -866,6 +873,363 @@
         <a:xfrm>
           <a:off x="609601" y="29908500"/>
           <a:ext cx="11182350" cy="6183706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>522819</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F29C573-BF60-49FA-AAA9-E84215FA988A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="8447619" cy="1485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>84419</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692DF882-A3E2-424A-B2B7-BD4324533784}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2286000"/>
+          <a:ext cx="10447619" cy="4200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>165491</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3B53E4D-1928-49DD-8B47-7715C9D578DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6858000"/>
+          <a:ext cx="11496675" cy="3403991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>36800</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>47000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F77180-80A3-455A-88A8-199A0796E12C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10668000"/>
+          <a:ext cx="10400000" cy="5000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123505</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>56833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0AD7B7B-0CB5-43B3-9202-DB456A436CD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15811500"/>
+          <a:ext cx="2561905" cy="2533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>170438</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>142643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D9CA1A-DE05-4DDC-887E-3E72179AA91D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="18478500"/>
+          <a:ext cx="8095238" cy="1857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>456076</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>94929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8B077EB-530A-4EFD-95D1-1622F7F94DBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20574000"/>
+          <a:ext cx="8990476" cy="2571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>167823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8391A3-75A5-4BC2-8A8A-B9B8DF0E0A2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="23812500"/>
+          <a:ext cx="10782300" cy="5882823"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1209,7 +1573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61A0D63-6BB6-49E1-9569-6A621F75387F}">
   <dimension ref="A2:A157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+    <sheetView topLeftCell="A178" workbookViewId="0">
       <selection activeCell="B191" sqref="B191"/>
     </sheetView>
   </sheetViews>
@@ -1259,4 +1623,50 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B97D0A-7DE2-42E1-93C6-D99AD56EACFE}">
+  <dimension ref="A2:A125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>